--- a/nop-report/model/nop-report.orm.xlsx
+++ b/nop-report/model/nop-report.orm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy-bak\nop-report\model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-report\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887A14BD-53FC-41BA-8719-2FF066EB6A4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20A57A5-3632-421D-AD72-879AB2FD7FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="4" activeTab="6" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -262,10 +262,6 @@
   </si>
   <si>
     <t>maven.groupId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>io.nop</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -777,6 +773,10 @@
   </si>
   <si>
     <t>DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>io.github.entropy-cloud</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -981,6 +981,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1001,24 +1019,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1544,8 +1544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9313AC94-4A2B-4F66-85AD-4A3D79664E62}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1557,7 +1557,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>17</v>
@@ -1574,7 +1574,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1582,32 +1582,32 @@
         <v>56</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1615,54 +1615,54 @@
         <v>57</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>58</v>
+        <v>176</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1845,7 +1845,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
@@ -1862,11 +1862,11 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1877,10 +1877,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>20</v>
@@ -1896,7 +1896,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
@@ -1913,7 +1913,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
@@ -1928,7 +1928,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
@@ -1943,7 +1943,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
@@ -1960,7 +1960,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
@@ -1975,7 +1975,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
@@ -1992,11 +1992,11 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -2007,7 +2007,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
@@ -2024,7 +2024,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
@@ -2122,132 +2122,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="16"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="22"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="19"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="25"/>
       <c r="N1" s="11"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="16"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="22"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="19"/>
+      <c r="I2" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="25"/>
       <c r="N2" s="11"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="16"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="22"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="19"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="25"/>
       <c r="N3" s="11"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="16"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="22"/>
       <c r="N4" s="10"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="23"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="16"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -2263,7 +2263,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
@@ -2290,7 +2290,7 @@
         <v>27</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>10</v>
@@ -2308,13 +2308,13 @@
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>143</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>14</v>
@@ -2333,7 +2333,7 @@
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P8" s="1"/>
     </row>
@@ -2343,17 +2343,17 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>145</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>146</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="5" t="s">
@@ -2378,14 +2378,14 @@
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>98</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="5"/>
@@ -2408,17 +2408,17 @@
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>149</v>
-      </c>
       <c r="H11" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>19</v>
@@ -2433,7 +2433,7 @@
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P11" s="1"/>
     </row>
@@ -2451,7 +2451,7 @@
         <v>26</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="5" t="s">
@@ -2477,7 +2477,7 @@
         <v>28</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>29</v>
@@ -2486,7 +2486,7 @@
         <v>30</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>19</v>
@@ -2518,7 +2518,7 @@
         <v>33</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>19</v>
@@ -2552,7 +2552,7 @@
         <v>37</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>19</v>
@@ -2584,7 +2584,7 @@
         <v>41</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>19</v>
@@ -2618,7 +2618,7 @@
         <v>44</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>19</v>
@@ -2643,7 +2643,7 @@
         <v>45</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>46</v>
@@ -2652,7 +2652,7 @@
         <v>10</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="6" t="s">
@@ -2686,22 +2686,22 @@
       <c r="P19" s="1"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="21"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="23"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="16"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B22" s="9" t="s">
@@ -2710,23 +2710,29 @@
       <c r="C22" s="9"/>
     </row>
     <row r="23" spans="1:16" ht="124.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
+      <c r="B23" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A20:P20"/>
     <mergeCell ref="B23:M23"/>
@@ -2736,12 +2742,6 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:M4"/>
     <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2774,132 +2774,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="16"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="22"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="19"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="25"/>
       <c r="N1" s="11"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="16"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="22"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="19"/>
+      <c r="I2" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="25"/>
       <c r="N2" s="11"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="16"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="22"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="19"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="25"/>
       <c r="N3" s="11"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="16"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="22"/>
       <c r="N4" s="10"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="23"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="16"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -2915,7 +2915,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
@@ -2942,7 +2942,7 @@
         <v>27</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>10</v>
@@ -2960,13 +2960,13 @@
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>14</v>
@@ -2985,7 +2985,7 @@
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P8" s="1"/>
     </row>
@@ -2995,17 +2995,17 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>108</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>109</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="5" t="s">
@@ -3030,14 +3030,14 @@
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>98</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="5"/>
@@ -3060,14 +3060,14 @@
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>122</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>123</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="5" t="s">
@@ -3083,7 +3083,7 @@
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P11" s="1"/>
     </row>
@@ -3094,14 +3094,14 @@
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="5" t="s">
@@ -3117,7 +3117,7 @@
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
       <c r="O12" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P12" s="1"/>
     </row>
@@ -3128,17 +3128,17 @@
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>115</v>
-      </c>
       <c r="H13" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>19</v>
@@ -3153,7 +3153,7 @@
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
       <c r="O13" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P13" s="1"/>
     </row>
@@ -3164,17 +3164,17 @@
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="G14" s="6" t="s">
-        <v>118</v>
-      </c>
       <c r="H14" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>19</v>
@@ -3189,7 +3189,7 @@
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
       <c r="O14" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P14" s="1"/>
     </row>
@@ -3200,17 +3200,17 @@
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>152</v>
-      </c>
       <c r="H15" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="6" t="s">
@@ -3239,7 +3239,7 @@
         <v>26</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="5" t="s">
@@ -3265,7 +3265,7 @@
         <v>28</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>29</v>
@@ -3274,7 +3274,7 @@
         <v>30</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>19</v>
@@ -3306,7 +3306,7 @@
         <v>33</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>19</v>
@@ -3340,7 +3340,7 @@
         <v>37</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>19</v>
@@ -3372,7 +3372,7 @@
         <v>41</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>19</v>
@@ -3406,7 +3406,7 @@
         <v>44</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>19</v>
@@ -3431,7 +3431,7 @@
         <v>45</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>46</v>
@@ -3440,7 +3440,7 @@
         <v>10</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I22" s="5"/>
       <c r="J22" s="6" t="s">
@@ -3474,22 +3474,22 @@
       <c r="P23" s="1"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="21"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="23"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="16"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B26" s="9" t="s">
@@ -3498,20 +3498,20 @@
       <c r="C26" s="9"/>
     </row>
     <row r="27" spans="1:16" ht="124.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
+      <c r="B27" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -3562,134 +3562,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="16"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="22"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="19"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="25"/>
       <c r="N1" s="11"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="16"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="22"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="19"/>
+      <c r="I2" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="25"/>
       <c r="N2" s="11"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="16"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="22"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="19"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="25"/>
       <c r="N3" s="11"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="16"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="22"/>
       <c r="N4" s="10"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="23"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="16"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -3705,7 +3705,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
@@ -3732,7 +3732,7 @@
         <v>27</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>10</v>
@@ -3750,13 +3750,13 @@
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>14</v>
@@ -3775,7 +3775,7 @@
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P8" s="1"/>
     </row>
@@ -3785,17 +3785,17 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>133</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>134</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="5" t="s">
@@ -3820,14 +3820,14 @@
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>136</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>137</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="5" t="s">
@@ -3855,7 +3855,7 @@
         <v>28</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>29</v>
@@ -3864,7 +3864,7 @@
         <v>30</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>19</v>
@@ -3896,7 +3896,7 @@
         <v>33</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>19</v>
@@ -3930,7 +3930,7 @@
         <v>37</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>19</v>
@@ -3962,7 +3962,7 @@
         <v>41</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>19</v>
@@ -3996,7 +3996,7 @@
         <v>44</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>19</v>
@@ -4021,7 +4021,7 @@
         <v>45</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>46</v>
@@ -4030,7 +4030,7 @@
         <v>10</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="6" t="s">
@@ -4064,22 +4064,22 @@
       <c r="P17" s="1"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="21"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="23"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="16"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B20" s="9" t="s">
@@ -4088,23 +4088,29 @@
       <c r="C20" s="9"/>
     </row>
     <row r="21" spans="1:16" ht="124.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
+      <c r="B21" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A18:P18"/>
     <mergeCell ref="B21:M21"/>
@@ -4114,12 +4120,6 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:M4"/>
     <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4130,7 +4130,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA08EB2-8B14-4D90-BD9C-62084C48CD81}">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A25" sqref="A25:P25"/>
     </sheetView>
   </sheetViews>
@@ -4152,134 +4152,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="16"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="22"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="19"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="25"/>
       <c r="N1" s="11"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="16"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="22"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="19"/>
+      <c r="I2" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="25"/>
       <c r="N2" s="11"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="16"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="22"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="19"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="25"/>
       <c r="N3" s="11"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="16"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="22"/>
       <c r="N4" s="10"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="23"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="16"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -4295,7 +4295,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
@@ -4322,7 +4322,7 @@
         <v>27</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>10</v>
@@ -4339,16 +4339,16 @@
         <v>18</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>157</v>
-      </c>
       <c r="E8" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>14</v>
@@ -4375,17 +4375,17 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>159</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>160</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="5" t="s">
@@ -4410,14 +4410,14 @@
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>165</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>166</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="5" t="s">
@@ -4442,14 +4442,14 @@
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>162</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>163</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="5" t="s">
@@ -4474,14 +4474,14 @@
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="5" t="s">
@@ -4506,14 +4506,14 @@
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="5"/>
@@ -4536,19 +4536,19 @@
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>174</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>175</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="5"/>
       <c r="J14" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L14" s="5"/>
       <c r="M14" s="6"/>
@@ -4563,14 +4563,14 @@
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="5"/>
@@ -4600,7 +4600,7 @@
         <v>26</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="5" t="s">
@@ -4623,14 +4623,14 @@
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>98</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="5"/>
@@ -4656,7 +4656,7 @@
         <v>28</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>29</v>
@@ -4665,7 +4665,7 @@
         <v>30</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>19</v>
@@ -4697,7 +4697,7 @@
         <v>33</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>19</v>
@@ -4731,7 +4731,7 @@
         <v>37</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>19</v>
@@ -4763,7 +4763,7 @@
         <v>41</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>19</v>
@@ -4797,7 +4797,7 @@
         <v>44</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I22" s="5" t="s">
         <v>19</v>
@@ -4822,7 +4822,7 @@
         <v>45</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>46</v>
@@ -4831,7 +4831,7 @@
         <v>10</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="6" t="s">
@@ -4865,22 +4865,22 @@
       <c r="P24" s="1"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="21"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="23"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="16"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B27" s="9" t="s">
@@ -4889,29 +4889,23 @@
       <c r="C27" s="9"/>
     </row>
     <row r="28" spans="1:16" ht="124.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
+      <c r="B28" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A25:P25"/>
     <mergeCell ref="B28:M28"/>
@@ -4921,6 +4915,12 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:M4"/>
     <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/nop-report/model/nop-report.orm.xlsx
+++ b/nop-report/model/nop-report.orm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-report\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20A57A5-3632-421D-AD72-879AB2FD7FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC365FAC-1A66-4A64-B85A-1A582F7FA046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="4" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="178">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -366,10 +366,6 @@
   </si>
   <si>
     <t>缺省值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>json-1000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -777,6 +773,14 @@
   </si>
   <si>
     <t>io.github.entropy-cloud</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json-128K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>128K</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -981,24 +985,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1019,6 +1005,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1544,7 +1548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9313AC94-4A2B-4F66-85AD-4A3D79664E62}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1557,7 +1561,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>17</v>
@@ -1582,7 +1586,7 @@
         <v>56</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>62</v>
@@ -1593,7 +1597,7 @@
         <v>73</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>72</v>
@@ -1604,7 +1608,7 @@
         <v>71</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>63</v>
@@ -1615,7 +1619,7 @@
         <v>57</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>64</v>
@@ -1626,7 +1630,7 @@
         <v>58</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>65</v>
@@ -1706,7 +1710,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1845,7 +1849,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
@@ -1866,7 +1870,7 @@
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1877,7 +1881,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>84</v>
+        <v>176</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>81</v>
@@ -1885,8 +1889,8 @@
       <c r="D10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="1">
-        <v>1</v>
+      <c r="E10" s="1" t="s">
+        <v>177</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -1896,7 +1900,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
@@ -1992,11 +1996,11 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -2007,7 +2011,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
@@ -2024,7 +2028,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
@@ -2122,132 +2126,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="22"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="16"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="25"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="19"/>
       <c r="N1" s="11"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="22"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="16"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="25"/>
+      <c r="I2" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="19"/>
       <c r="N2" s="11"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="22"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="16"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="25"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="19"/>
       <c r="N3" s="11"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="22"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="16"/>
       <c r="N4" s="10"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="16"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="23"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -2263,7 +2267,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
@@ -2308,13 +2312,13 @@
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>141</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>142</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>14</v>
@@ -2333,7 +2337,7 @@
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P8" s="1"/>
     </row>
@@ -2343,17 +2347,17 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>144</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>145</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="5" t="s">
@@ -2378,14 +2382,14 @@
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>97</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="5"/>
@@ -2408,17 +2412,17 @@
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>148</v>
-      </c>
       <c r="H11" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>19</v>
@@ -2433,7 +2437,7 @@
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P11" s="1"/>
     </row>
@@ -2477,7 +2481,7 @@
         <v>28</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>29</v>
@@ -2643,7 +2647,7 @@
         <v>45</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>46</v>
@@ -2652,7 +2656,7 @@
         <v>10</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="6" t="s">
@@ -2686,22 +2690,22 @@
       <c r="P19" s="1"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="14"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="16"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="23"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B22" s="9" t="s">
@@ -2710,29 +2714,23 @@
       <c r="C22" s="9"/>
     </row>
     <row r="23" spans="1:16" ht="124.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
+      <c r="B23" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A20:P20"/>
     <mergeCell ref="B23:M23"/>
@@ -2742,6 +2740,12 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:M4"/>
     <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2752,8 +2756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E8E42C9-C05B-4E62-A510-6D91D5B4B214}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:P24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2774,132 +2778,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="22"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="16"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="25"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="19"/>
       <c r="N1" s="11"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="22"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="16"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="25"/>
+      <c r="I2" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="19"/>
       <c r="N2" s="11"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="22"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="16"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="25"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="19"/>
       <c r="N3" s="11"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="22"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="16"/>
       <c r="N4" s="10"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="16"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="23"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -2915,7 +2919,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
@@ -2960,13 +2964,13 @@
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>104</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>105</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>14</v>
@@ -2985,7 +2989,7 @@
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P8" s="1"/>
     </row>
@@ -2995,17 +2999,17 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>107</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>108</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="5" t="s">
@@ -3030,14 +3034,14 @@
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>97</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="5"/>
@@ -3060,14 +3064,14 @@
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>121</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>122</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="5" t="s">
@@ -3083,7 +3087,7 @@
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P11" s="1"/>
     </row>
@@ -3094,14 +3098,14 @@
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="5" t="s">
@@ -3117,7 +3121,7 @@
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
       <c r="O12" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P12" s="1"/>
     </row>
@@ -3128,17 +3132,17 @@
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>114</v>
-      </c>
       <c r="H13" s="6" t="s">
-        <v>94</v>
+        <v>176</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>19</v>
@@ -3146,14 +3150,14 @@
       <c r="J13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K13">
-        <v>16777215</v>
+      <c r="K13" t="s">
+        <v>177</v>
       </c>
       <c r="L13" s="5"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
       <c r="O13" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P13" s="1"/>
     </row>
@@ -3164,17 +3168,17 @@
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="G14" s="6" t="s">
-        <v>117</v>
-      </c>
       <c r="H14" s="6" t="s">
-        <v>94</v>
+        <v>176</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>19</v>
@@ -3182,14 +3186,14 @@
       <c r="J14" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K14">
-        <v>16777215</v>
+      <c r="K14" t="s">
+        <v>177</v>
       </c>
       <c r="L14" s="5"/>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
       <c r="O14" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P14" s="1"/>
     </row>
@@ -3200,24 +3204,24 @@
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>151</v>
-      </c>
       <c r="H15" s="6" t="s">
-        <v>94</v>
+        <v>176</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K15">
-        <v>16777215</v>
+      <c r="K15" t="s">
+        <v>177</v>
       </c>
       <c r="L15" s="5"/>
       <c r="M15" s="6"/>
@@ -3265,7 +3269,7 @@
         <v>28</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>29</v>
@@ -3431,7 +3435,7 @@
         <v>45</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>46</v>
@@ -3440,7 +3444,7 @@
         <v>10</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I22" s="5"/>
       <c r="J22" s="6" t="s">
@@ -3474,22 +3478,22 @@
       <c r="P23" s="1"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="14"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="16"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="23"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B26" s="9" t="s">
@@ -3498,20 +3502,20 @@
       <c r="C26" s="9"/>
     </row>
     <row r="27" spans="1:16" ht="124.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
+      <c r="B27" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -3562,134 +3566,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="22"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="16"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="25"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="19"/>
       <c r="N1" s="11"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="22"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="16"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="25"/>
+      <c r="I2" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="19"/>
       <c r="N2" s="11"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="22"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="16"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="25"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="19"/>
       <c r="N3" s="11"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="22"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="16"/>
       <c r="N4" s="10"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="16"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="23"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -3705,7 +3709,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
@@ -3750,13 +3754,13 @@
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>104</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>105</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>14</v>
@@ -3775,7 +3779,7 @@
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P8" s="1"/>
     </row>
@@ -3785,17 +3789,17 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>132</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>133</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="5" t="s">
@@ -3820,14 +3824,14 @@
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>135</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>136</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="5" t="s">
@@ -3855,7 +3859,7 @@
         <v>28</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>29</v>
@@ -4021,7 +4025,7 @@
         <v>45</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>46</v>
@@ -4030,7 +4034,7 @@
         <v>10</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="6" t="s">
@@ -4064,22 +4068,22 @@
       <c r="P17" s="1"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="14"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="16"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="23"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B20" s="9" t="s">
@@ -4088,29 +4092,23 @@
       <c r="C20" s="9"/>
     </row>
     <row r="21" spans="1:16" ht="124.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
+      <c r="B21" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A18:P18"/>
     <mergeCell ref="B21:M21"/>
@@ -4120,6 +4118,12 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:M4"/>
     <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4152,134 +4156,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="22"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="16"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="25"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="19"/>
       <c r="N1" s="11"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="22"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="16"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="25"/>
+      <c r="I2" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="19"/>
       <c r="N2" s="11"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="22"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="16"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="25"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="19"/>
       <c r="N3" s="11"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="22"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="16"/>
       <c r="N4" s="10"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="16"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="23"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -4295,7 +4299,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
@@ -4339,16 +4343,16 @@
         <v>18</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>156</v>
-      </c>
       <c r="E8" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>14</v>
@@ -4375,17 +4379,17 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>158</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>159</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="5" t="s">
@@ -4410,14 +4414,14 @@
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>164</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>165</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="5" t="s">
@@ -4442,14 +4446,14 @@
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>161</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>162</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="5" t="s">
@@ -4474,14 +4478,14 @@
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="5" t="s">
@@ -4506,14 +4510,14 @@
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="5"/>
@@ -4536,19 +4540,19 @@
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>173</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>174</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="5"/>
       <c r="J14" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L14" s="5"/>
       <c r="M14" s="6"/>
@@ -4563,14 +4567,14 @@
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="5"/>
@@ -4623,14 +4627,14 @@
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>97</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="5"/>
@@ -4656,7 +4660,7 @@
         <v>28</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>29</v>
@@ -4822,7 +4826,7 @@
         <v>45</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>46</v>
@@ -4831,7 +4835,7 @@
         <v>10</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="6" t="s">
@@ -4865,22 +4869,22 @@
       <c r="P24" s="1"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="14"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="16"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="23"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B27" s="9" t="s">
@@ -4889,23 +4893,29 @@
       <c r="C27" s="9"/>
     </row>
     <row r="28" spans="1:16" ht="124.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
+      <c r="B28" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A25:P25"/>
     <mergeCell ref="B28:M28"/>
@@ -4915,12 +4925,6 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:M4"/>
     <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/nop-report/model/nop-report.orm.xlsx
+++ b/nop-report/model/nop-report.orm.xlsx
@@ -1,25 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-report\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC365FAC-1A66-4A64-B85A-1A582F7FA046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856FEF8B-384E-4EA4-B226-74F67F353949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="4" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="6" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
     <sheet name="配置" sheetId="3" r:id="rId2"/>
     <sheet name="域定义" sheetId="15" r:id="rId3"/>
     <sheet name="nop_report_definition" sheetId="17" r:id="rId4"/>
-    <sheet name="nop_report_dataset" sheetId="7" r:id="rId5"/>
-    <sheet name="nop_report_dataset_auth" sheetId="16" r:id="rId6"/>
-    <sheet name="nop_report_result_file" sheetId="18" r:id="rId7"/>
+    <sheet name="nop_report_definition_auth" sheetId="20" r:id="rId5"/>
+    <sheet name="nop_report_dataset_ref" sheetId="21" r:id="rId6"/>
+    <sheet name="nop_report_dataset" sheetId="7" r:id="rId7"/>
+    <sheet name="nop_report_sub_dataset" sheetId="22" r:id="rId8"/>
+    <sheet name="nop_report_datasource" sheetId="19" r:id="rId9"/>
+    <sheet name="nop_report_datasource_auth" sheetId="16" r:id="rId10"/>
+    <sheet name="nop_report_result_file" sheetId="18" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="270">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -253,10 +257,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>* 填写说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>appName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -401,49 +401,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>注意：所有列表结构的第一列，如编号和序号列必须是数字，且不能为空，系统内部通过此列来识别列表结构的起始行</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-1. 主键列：对于主键所在的列，标记PK
-2. 是否非空列: 对于必填字段，标记M
-3. 数据类型：必须是StdSqlType中定义的类型，包括BOOLEAN, TINYINT, INTEGER, BIGINT, CHAR, VARCHAR, DATE, DATETIME, TIMESTAMP, DECIMAL, FLOAT, DOUBLE等。
-4. 字段标签: seq表示自动生成的ID，var表示随机值，masked表示打印到log中时需要掩码.not-pub表示不会返回到前台。sort表示列表的缺省排序字段, sort-desc表示缺省按照此字段的降序排序
-显示：X表示在界面上不显示，由程序内部使用， R表示只读字段，C表示不允许修改但允许插入，S表示占据单行显示，L表示在列表上不显示</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-5. 对象标签: no-web表示不为该对象生成前台页面</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>mediumtext</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -560,10 +517,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数据库连接配置等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>文件路径、SQL语句等</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -580,18 +533,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数据集权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nop_report_dataset_auth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dataset Auth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ROLE_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -604,22 +545,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PERMISSIONS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Permissions</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>许可权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置角色对指定数据集的访问权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>报表定义</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -664,18 +589,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DS_VIEW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dataset View</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据集显示配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Report Result File</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -684,10 +597,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>报表或者数据集的执行结果文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>seq</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -732,10 +641,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数据集参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DS_PARAMS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -781,6 +686,420 @@
   </si>
   <si>
     <t>128K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nop_report_datasource</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Report DataSource</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据源定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataSource ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键ID</t>
+  </si>
+  <si>
+    <t>数据源名称</t>
+  </si>
+  <si>
+    <t>数据源类型</t>
+  </si>
+  <si>
+    <t>状态</t>
+  </si>
+  <si>
+    <t>备注说明</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>REMARK</t>
+  </si>
+  <si>
+    <t>Remark</t>
+  </si>
+  <si>
+    <t>RPT_PARAMS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Report Params</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于缓存或者历史结果记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联属性名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to-one</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联中文名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联英文名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pub,ref-pub,ref-grid,ref-cascade-delete,ref-insertable,ref-updatable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reportDefinition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NopReportDefinition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rptId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nop_report_datasource_auth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据源访问权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置角色对指定数据源的访问权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据源ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reportDatasource</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Report Datasource</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Datasource Auth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datasourceAuths</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据源权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataSource Auths</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dsId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATASOURCE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Datasource ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datasourceId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTTP请求、SQL语句等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nop_report_definition_auth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Report Auth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Report访问权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置角色对指定报表的访问权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reportAuths</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NopReportDatasource</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表访问权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Report Auths</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPT_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>core/active-status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nop_report_dataset_ref</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表引用数据源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dataset Ref</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datasetRefs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dataset Refs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IS_SINGLE_ROW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否单行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Is Single Row</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dataset Config</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包含输入参数配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nop_report_sub_dataset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子数据源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sub Dataset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUB_DS_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sub Dataset ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子数据集ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOIN_FIELDS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Join Fields</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reportDataset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NopReportDataset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Report Dataset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subDsId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reportSubDataset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子数据集定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sub Report Dataset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子数据集参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATASOURCE_CONFIG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Config</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据源配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FILE_LENGTH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>File Length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIGINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Report No.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATASOURCE_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过滤规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FILTER_RULE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Filter Rule</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -788,7 +1107,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -815,23 +1134,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="8" tint="0.79998168889431442"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFC00000"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -858,12 +1168,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -936,6 +1258,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -945,7 +1278,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -973,9 +1306,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -983,6 +1313,18 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1006,23 +1348,92 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1342,17 +1753,17 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B2:B10"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.6640625" customWidth="1"/>
-    <col min="2" max="3" width="19.58203125" customWidth="1"/>
-    <col min="4" max="4" width="16.5" customWidth="1"/>
+    <col min="2" max="3" width="19.5546875" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -1366,7 +1777,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1374,7 +1785,7 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1382,7 +1793,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1390,7 +1801,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1398,7 +1809,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1406,7 +1817,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1414,7 +1825,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1422,7 +1833,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1430,7 +1841,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1438,7 +1849,7 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1446,7 +1857,7 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1454,7 +1865,7 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1462,7 +1873,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1470,7 +1881,7 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1478,7 +1889,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1486,7 +1897,7 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1494,7 +1905,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1502,37 +1913,37 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1544,716 +1955,987 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9313AC94-4A2B-4F66-85AD-4A3D79664E62}">
-  <dimension ref="A1:C16"/>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF882FEB-F106-4D4A-8941-12EB1A865DEC}">
+  <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.08203125" customWidth="1"/>
-    <col min="2" max="2" width="27.9140625" customWidth="1"/>
-    <col min="3" max="3" width="39.25" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="4.77734375" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="9" max="9" width="4.77734375" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="6.109375" customWidth="1"/>
+    <col min="12" max="12" width="8.21875" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" customWidth="1"/>
+    <col min="14" max="14" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="6" t="b">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="20"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="15"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>1</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="5">
+        <v>32</v>
+      </c>
+      <c r="L8" s="5"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>2</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="5">
+        <v>32</v>
+      </c>
+      <c r="L9" s="5"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>3</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="11">
+        <v>200</v>
+      </c>
+      <c r="L10" s="5"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>4</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="6" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="I11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>5</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="5">
+        <v>50</v>
+      </c>
+      <c r="L12" s="5"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>6</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>7</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="5">
+        <v>50</v>
+      </c>
+      <c r="L14" s="5"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>8</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>9</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I16" s="5"/>
+      <c r="J16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="5">
+        <v>200</v>
+      </c>
+      <c r="L16" s="5"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="15"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="25"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="26">
+        <v>1</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="C21" s="28"/>
+      <c r="D21" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="I21" s="14"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="L21" s="30"/>
+      <c r="M21" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="22"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="31"/>
+      <c r="B22" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="28"/>
+      <c r="D22" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="I22" s="14"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="L22" s="30"/>
+      <c r="M22" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="22"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="31"/>
+      <c r="B23" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="C23" s="28"/>
+      <c r="D23" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="I23" s="14"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="22"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="31"/>
+      <c r="B24" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="28"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L24" s="30"/>
+      <c r="M24" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="22"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="31"/>
+      <c r="B25" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="37"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="31"/>
+      <c r="B26" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="D26" s="39"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="G26" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="H26" s="30"/>
+      <c r="I26" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="J26" s="30"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="41"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="31"/>
+      <c r="B27" s="43">
+        <v>1</v>
+      </c>
+      <c r="C27" s="44" t="s">
+        <v>217</v>
+      </c>
+      <c r="D27" s="45"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="44" t="s">
+        <v>214</v>
+      </c>
+      <c r="H27" s="46"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="51"/>
+      <c r="O27" s="51"/>
+      <c r="P27" s="50"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="31"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="51"/>
+      <c r="O28" s="51"/>
+      <c r="P28" s="50"/>
     </row>
   </sheetData>
+  <mergeCells count="50">
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="B25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="A20:P20"/>
+    <mergeCell ref="A21:A28"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A18:P18"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="A5:P5"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF6B1C0B-16AE-459C-999C-D9C9CBAA7576}">
-  <dimension ref="A1:G25"/>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA08EB2-8B14-4D90-BD9C-62084C48CD81}">
+  <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="W7" sqref="W7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.9140625" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="4.77734375" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="9" max="9" width="4.77734375" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="6.109375" customWidth="1"/>
+    <col min="12" max="12" width="8.21875" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" customWidth="1"/>
+    <col min="14" max="14" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="1">
-        <v>50</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="1">
-        <v>100</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="1">
-        <v>100</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="1">
-        <v>100</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="1">
-        <v>100</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="1">
-        <v>50</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="1">
-        <v>50</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="1">
-        <v>50</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="1">
-        <v>50</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18">
-        <v>16777215</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="1">
-        <v>200</v>
-      </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3D4D0C3-A79D-4D5F-8931-3FAF6F23420B}">
-  <dimension ref="A1:P23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="4.4140625" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.9140625" customWidth="1"/>
-    <col min="5" max="5" width="4.75" customWidth="1"/>
-    <col min="6" max="6" width="15.08203125" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="9" max="9" width="4.75" customWidth="1"/>
-    <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="6.08203125" customWidth="1"/>
-    <col min="12" max="12" width="8.25" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" customWidth="1"/>
-    <col min="14" max="14" width="11.08203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="19"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="11"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="10"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="19"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="11"/>
+      <c r="I2" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="10"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="19"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="11"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="10"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="10"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="9"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="23"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="15"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -2267,7 +2949,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
@@ -2294,7 +2976,7 @@
         <v>27</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>10</v>
@@ -2303,19 +2985,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>1</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="D8" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>141</v>
@@ -2331,23 +3015,21 @@
         <v>20</v>
       </c>
       <c r="K8" s="5">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="L8" s="5"/>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
-      <c r="O8" s="5" t="s">
-        <v>126</v>
-      </c>
+      <c r="O8" s="5"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>2</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>142</v>
@@ -2366,7 +3048,7 @@
       <c r="J9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="12">
+      <c r="K9" s="5">
         <v>200</v>
       </c>
       <c r="L9" s="5"/>
@@ -2375,29 +3057,31 @@
       <c r="O9" s="5"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>3</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="6" t="s">
-        <v>94</v>
+        <v>148</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="6" t="s">
-        <v>95</v>
+        <v>149</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>96</v>
+        <v>150</v>
       </c>
       <c r="H10" s="6"/>
-      <c r="I10" s="5"/>
+      <c r="I10" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="J10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="12">
-        <v>1000</v>
+      <c r="K10" s="5">
+        <v>10</v>
       </c>
       <c r="L10" s="5"/>
       <c r="M10" s="6"/>
@@ -2405,9 +3089,9 @@
       <c r="O10" s="5"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -2421,48 +3105,44 @@
       <c r="G11" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="H11" s="6" t="s">
-        <v>93</v>
-      </c>
+      <c r="H11" s="6"/>
       <c r="I11" s="5" t="s">
         <v>19</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K11">
-        <v>16777215</v>
+      <c r="K11" s="5">
+        <v>100</v>
       </c>
       <c r="L11" s="5"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
-      <c r="O11" s="5" t="s">
-        <v>123</v>
-      </c>
+      <c r="O11" s="5"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="6" t="s">
-        <v>25</v>
+        <v>261</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="6" t="s">
-        <v>26</v>
+        <v>262</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>82</v>
+        <v>263</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="5" t="s">
         <v>19</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>21</v>
+        <v>264</v>
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
@@ -2471,59 +3151,51 @@
       <c r="O12" s="5"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>86</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="E13" s="5"/>
       <c r="F13" s="6" t="s">
-        <v>29</v>
+        <v>157</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>19</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="5"/>
       <c r="J13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K13" s="5"/>
+        <v>159</v>
+      </c>
+      <c r="K13" s="1"/>
       <c r="L13" s="5"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
       <c r="O13" s="5"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="6" t="s">
-        <v>31</v>
+        <v>130</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="6" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>76</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="H14" s="6"/>
       <c r="I14" s="5" t="s">
         <v>19</v>
       </c>
@@ -2531,7 +3203,7 @@
         <v>20</v>
       </c>
       <c r="K14" s="5">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="L14" s="5"/>
       <c r="M14" s="6"/>
@@ -2539,201 +3211,590 @@
       <c r="O14" s="5"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="6" t="s">
-        <v>35</v>
+        <v>181</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="6" t="s">
-        <v>36</v>
+        <v>182</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>78</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="H15" s="6"/>
       <c r="I15" s="5" t="s">
         <v>19</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="K15" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="K15" s="5">
+        <v>4000</v>
+      </c>
       <c r="L15" s="5"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="5"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="6" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="6" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>77</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="H16" s="6"/>
       <c r="I16" s="5" t="s">
         <v>19</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K16" s="5">
-        <v>50</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="K16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
       <c r="O16" s="5"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="6" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="6" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>19</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="5"/>
       <c r="J17" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="K17" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="K17" s="5">
+        <v>1000</v>
+      </c>
       <c r="L17" s="5"/>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
       <c r="O17" s="5"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="6" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="I18" s="5"/>
+        <v>74</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="J18" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K18" s="5">
-        <v>200</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
       <c r="O18" s="5"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>12</v>
+      </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
+      <c r="D19" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="E19" s="5"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="5"/>
+      <c r="F19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" s="5">
+        <v>50</v>
+      </c>
       <c r="L19" s="5"/>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
       <c r="O19" s="5"/>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="21"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="23"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B22" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="9"/>
-    </row>
-    <row r="23" spans="1:16" ht="124.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>13</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>14</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="5">
+        <v>50</v>
+      </c>
+      <c r="L21" s="5"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>15</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="1"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>16</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I23" s="5"/>
+      <c r="J23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" s="5">
+        <v>200</v>
+      </c>
+      <c r="L23" s="5"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="1"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="15"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="25"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="26">
+        <v>1</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="C28" s="28"/>
+      <c r="D28" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="H28" s="13"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="L28" s="30"/>
+      <c r="M28" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="22"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="31"/>
+      <c r="B29" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="28"/>
+      <c r="D29" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="I29" s="14"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="L29" s="30"/>
+      <c r="M29" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="22"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="31"/>
+      <c r="B30" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="C30" s="28"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="22"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="31"/>
+      <c r="B31" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="28"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L31" s="30"/>
+      <c r="M31" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="22"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="31"/>
+      <c r="B32" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="36"/>
+      <c r="P32" s="37"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="31"/>
+      <c r="B33" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="D33" s="39"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="G33" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="H33" s="30"/>
+      <c r="I33" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="J33" s="30"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="41"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="42"/>
+      <c r="O33" s="42"/>
+      <c r="P33" s="41"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="31"/>
+      <c r="B34" s="43">
+        <v>1</v>
+      </c>
+      <c r="C34" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="D34" s="45"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="H34" s="46"/>
+      <c r="I34" s="47"/>
+      <c r="J34" s="48"/>
+      <c r="K34" s="49"/>
+      <c r="L34" s="50"/>
+      <c r="M34" s="49"/>
+      <c r="N34" s="51"/>
+      <c r="O34" s="51"/>
+      <c r="P34" s="50"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="31"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="47"/>
+      <c r="J35" s="48"/>
+      <c r="K35" s="49"/>
+      <c r="L35" s="50"/>
+      <c r="M35" s="49"/>
+      <c r="N35" s="51"/>
+      <c r="O35" s="51"/>
+      <c r="P35" s="50"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="50">
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="B32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="A27:P27"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="M30:P30"/>
     <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A20:P20"/>
-    <mergeCell ref="B23:M23"/>
+    <mergeCell ref="A25:P25"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="I3:M3"/>
@@ -2752,160 +3813,716 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E8E42C9-C05B-4E62-A510-6D91D5B4B214}">
-  <dimension ref="A1:P27"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9313AC94-4A2B-4F66-85AD-4A3D79664E62}">
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.109375" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" customWidth="1"/>
+    <col min="3" max="3" width="39.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF6B1C0B-16AE-459C-999C-D9C9CBAA7576}">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.88671875" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1">
+        <v>50</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1">
+        <v>100</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1">
+        <v>100</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1">
+        <v>100</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="1">
+        <v>100</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="1">
+        <v>50</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="1">
+        <v>50</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="1">
+        <v>50</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="1">
+        <v>50</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>16777215</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="1">
+        <v>200</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3D4D0C3-A79D-4D5F-8931-3FAF6F23420B}">
+  <dimension ref="A1:P21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="4.4140625" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" customWidth="1"/>
     <col min="3" max="3" width="5.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.9140625" customWidth="1"/>
-    <col min="5" max="5" width="4.75" customWidth="1"/>
-    <col min="6" max="6" width="15.08203125" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="4.77734375" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="9" max="9" width="4.75" customWidth="1"/>
+    <col min="9" max="9" width="4.77734375" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="6.08203125" customWidth="1"/>
-    <col min="12" max="12" width="8.25" customWidth="1"/>
+    <col min="11" max="11" width="6.109375" customWidth="1"/>
+    <col min="12" max="12" width="8.21875" customWidth="1"/>
     <col min="13" max="13" width="12.6640625" customWidth="1"/>
-    <col min="14" max="14" width="11.08203125" customWidth="1"/>
+    <col min="14" max="14" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="19"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="11"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="10"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="19"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="11"/>
+      <c r="I2" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="10"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="19"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="11"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="10"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="10"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="9"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="23"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="15"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -2919,7 +4536,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
@@ -2946,7 +4563,7 @@
         <v>27</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>10</v>
@@ -2955,22 +4572,24 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>1</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="D8" s="6" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>14</v>
@@ -2983,33 +4602,31 @@
         <v>20</v>
       </c>
       <c r="K8" s="5">
-        <v>200</v>
+        <v>32</v>
       </c>
       <c r="L8" s="5"/>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
-      <c r="O8" s="5" t="s">
-        <v>126</v>
-      </c>
+      <c r="O8" s="5"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>2</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>105</v>
+        <v>227</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="6" t="s">
-        <v>106</v>
+        <v>265</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>107</v>
+        <v>228</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="5" t="s">
@@ -3018,7 +4635,7 @@
       <c r="J9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="12">
+      <c r="K9" s="11">
         <v>200</v>
       </c>
       <c r="L9" s="5"/>
@@ -3027,29 +4644,31 @@
       <c r="O9" s="5"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>3</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="6" t="s">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="6" t="s">
-        <v>95</v>
+        <v>133</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="H10" s="6"/>
-      <c r="I10" s="5"/>
+      <c r="I10" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="J10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="12">
-        <v>1000</v>
+      <c r="K10" s="11">
+        <v>200</v>
       </c>
       <c r="L10" s="5"/>
       <c r="M10" s="6"/>
@@ -3057,171 +4676,165 @@
       <c r="O10" s="5"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>4</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="6" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="6" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="I11" s="5"/>
       <c r="J11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="12">
-        <v>100</v>
+      <c r="K11" s="11">
+        <v>1000</v>
       </c>
       <c r="L11" s="5"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
-      <c r="O11" s="5" t="s">
-        <v>124</v>
-      </c>
+      <c r="O11" s="5"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>5</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="6" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="6" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="H12" s="6"/>
+        <v>137</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>91</v>
+      </c>
       <c r="I12" s="5" t="s">
         <v>19</v>
       </c>
       <c r="J12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="12">
-        <v>4000</v>
+      <c r="K12">
+        <v>16777215</v>
       </c>
       <c r="L12" s="5"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
       <c r="O12" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>6</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="6" t="s">
-        <v>111</v>
+        <v>25</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="6" t="s">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>176</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="H13" s="6"/>
       <c r="I13" s="5" t="s">
         <v>19</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K13" t="s">
-        <v>177</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="K13" s="5"/>
       <c r="L13" s="5"/>
-      <c r="M13" s="6"/>
+      <c r="M13" s="6" t="s">
+        <v>229</v>
+      </c>
       <c r="N13" s="6"/>
-      <c r="O13" s="5" t="s">
-        <v>123</v>
-      </c>
+      <c r="O13" s="5"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>7</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="E14" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>85</v>
+      </c>
       <c r="F14" s="6" t="s">
-        <v>115</v>
+        <v>29</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>116</v>
+        <v>30</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>176</v>
+        <v>74</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>19</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14" t="s">
-        <v>177</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
-      <c r="O14" s="5" t="s">
-        <v>125</v>
-      </c>
+      <c r="O14" s="5"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>8</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="6" t="s">
-        <v>148</v>
+        <v>31</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="6" t="s">
-        <v>149</v>
+        <v>32</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>150</v>
+        <v>33</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="I15" s="5"/>
+        <v>75</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="J15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K15" t="s">
-        <v>177</v>
+      <c r="K15" s="5">
+        <v>50</v>
       </c>
       <c r="L15" s="5"/>
       <c r="M15" s="6"/>
@@ -3229,28 +4842,30 @@
       <c r="O15" s="5"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>9</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="6" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="6" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="H16" s="6"/>
+        <v>37</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>77</v>
+      </c>
       <c r="I16" s="5" t="s">
         <v>19</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
@@ -3259,443 +4874,320 @@
       <c r="O16" s="5"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>10</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>86</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="E17" s="5"/>
       <c r="F17" s="6" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>19</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K17" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="K17" s="5">
+        <v>50</v>
+      </c>
       <c r="L17" s="5"/>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
       <c r="O17" s="5"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>11</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="6" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="6" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>19</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K18" s="5">
-        <v>50</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
       <c r="O18" s="5"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>12</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="5"/>
+        <v>45</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>86</v>
+      </c>
       <c r="F19" s="6" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>19</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="I19" s="5"/>
       <c r="J19" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="K19" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="K19" s="5">
+        <v>200</v>
+      </c>
       <c r="L19" s="5"/>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
       <c r="O19" s="5"/>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="5">
-        <v>13</v>
-      </c>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
-      <c r="D20" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="D20" s="6"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K20" s="5">
-        <v>50</v>
-      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
       <c r="O20" s="5"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="5">
-        <v>14</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="1"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="5">
-        <v>15</v>
-      </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="I22" s="5"/>
-      <c r="J22" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K22" s="5">
-        <v>200</v>
-      </c>
-      <c r="L22" s="5"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="1"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="1"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="21"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="23"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B26" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" s="9"/>
-    </row>
-    <row r="27" spans="1:16" ht="124.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="B27:M27"/>
+  <mergeCells count="14">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:G1"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="D4:M4"/>
     <mergeCell ref="I1:M1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A21:P21"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A24:P24"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="A5:P5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF882FEB-F106-4D4A-8941-12EB1A865DEC}">
-  <dimension ref="A1:P21"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2176321D-C9A5-4FF1-ABBA-57CCA5B64279}">
+  <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:P5"/>
+      <selection activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="4.4140625" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" customWidth="1"/>
     <col min="3" max="3" width="5.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.9140625" customWidth="1"/>
-    <col min="5" max="5" width="4.75" customWidth="1"/>
-    <col min="6" max="6" width="15.08203125" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="4.77734375" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="9" max="9" width="4.75" customWidth="1"/>
+    <col min="9" max="9" width="4.77734375" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="6.08203125" customWidth="1"/>
-    <col min="12" max="12" width="8.25" customWidth="1"/>
+    <col min="11" max="11" width="6.109375" customWidth="1"/>
+    <col min="12" max="12" width="8.21875" customWidth="1"/>
     <col min="13" max="13" width="12.6640625" customWidth="1"/>
-    <col min="14" max="14" width="11.08203125" customWidth="1"/>
+    <col min="14" max="14" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="19"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="11"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="10"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="19"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="11"/>
+      <c r="I2" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="10"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="19"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="11"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="10"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="10"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="9"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="23"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="15"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -3709,7 +5201,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
@@ -3736,7 +5228,7 @@
         <v>27</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>10</v>
@@ -3745,22 +5237,24 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>1</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="D8" s="6" t="s">
-        <v>103</v>
+        <v>141</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>14</v>
@@ -3773,24 +5267,20 @@
         <v>20</v>
       </c>
       <c r="K8" s="5">
-        <v>200</v>
+        <v>32</v>
       </c>
       <c r="L8" s="5"/>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
-      <c r="O8" s="5" t="s">
-        <v>126</v>
-      </c>
+      <c r="O8" s="5"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>2</v>
       </c>
       <c r="B9" s="5"/>
-      <c r="C9" s="5" t="s">
-        <v>88</v>
-      </c>
+      <c r="C9" s="5"/>
       <c r="D9" s="6" t="s">
         <v>130</v>
       </c>
@@ -3799,7 +5289,7 @@
         <v>131</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="5" t="s">
@@ -3808,8 +5298,8 @@
       <c r="J9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="12">
-        <v>200</v>
+      <c r="K9" s="5">
+        <v>32</v>
       </c>
       <c r="L9" s="5"/>
       <c r="M9" s="6"/>
@@ -3817,21 +5307,23 @@
       <c r="O9" s="5"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>3</v>
       </c>
       <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>87</v>
+      </c>
       <c r="D10" s="6" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="6" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="5" t="s">
@@ -3840,8 +5332,8 @@
       <c r="J10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="12">
-        <v>100</v>
+      <c r="K10" s="11">
+        <v>200</v>
       </c>
       <c r="L10" s="5"/>
       <c r="M10" s="6"/>
@@ -3849,7 +5341,7 @@
       <c r="O10" s="5"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>4</v>
       </c>
@@ -3859,7 +5351,7 @@
         <v>28</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>29</v>
@@ -3868,7 +5360,7 @@
         <v>30</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>19</v>
@@ -3883,7 +5375,7 @@
       <c r="O11" s="5"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>5</v>
       </c>
@@ -3900,7 +5392,7 @@
         <v>33</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>19</v>
@@ -3917,7 +5409,7 @@
       <c r="O12" s="5"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>6</v>
       </c>
@@ -3934,7 +5426,7 @@
         <v>37</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>19</v>
@@ -3949,7 +5441,7 @@
       <c r="O13" s="5"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>7</v>
       </c>
@@ -3966,7 +5458,7 @@
         <v>41</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>19</v>
@@ -3983,7 +5475,7 @@
       <c r="O14" s="5"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>8</v>
       </c>
@@ -4000,7 +5492,7 @@
         <v>44</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>19</v>
@@ -4015,7 +5507,7 @@
       <c r="O15" s="5"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>9</v>
       </c>
@@ -4025,7 +5517,7 @@
         <v>45</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>46</v>
@@ -4034,7 +5526,7 @@
         <v>10</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="6" t="s">
@@ -4049,7 +5541,7 @@
       <c r="O16" s="5"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -4067,51 +5559,1073 @@
       <c r="O17" s="5"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="21"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="23"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B20" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="9"/>
-    </row>
-    <row r="21" spans="1:16" ht="124.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="15"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="25"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="26">
+        <v>1</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="C21" s="28"/>
+      <c r="D21" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="I21" s="14"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="L21" s="30"/>
+      <c r="M21" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="22"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="31"/>
+      <c r="B22" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="28"/>
+      <c r="D22" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="I22" s="14"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="L22" s="30"/>
+      <c r="M22" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="22"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="31"/>
+      <c r="B23" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="C23" s="28"/>
+      <c r="D23" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="I23" s="14"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="22"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="31"/>
+      <c r="B24" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="28"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L24" s="30"/>
+      <c r="M24" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="22"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="31"/>
+      <c r="B25" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="37"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="31"/>
+      <c r="B26" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="D26" s="39"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="G26" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="H26" s="30"/>
+      <c r="I26" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="J26" s="30"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="41"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="31"/>
+      <c r="B27" s="43">
+        <v>1</v>
+      </c>
+      <c r="C27" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="D27" s="45"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="H27" s="46"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="51"/>
+      <c r="O27" s="51"/>
+      <c r="P27" s="50"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="31"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="51"/>
+      <c r="O28" s="51"/>
+      <c r="P28" s="50"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="50">
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="B25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="M23:P23"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A18:P18"/>
-    <mergeCell ref="B21:M21"/>
+    <mergeCell ref="A20:P20"/>
+    <mergeCell ref="A21:A28"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6D2E11F-0AA4-493F-A52E-7C3A6CC9A81C}">
+  <dimension ref="A1:P27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="4.77734375" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="9" max="9" width="4.77734375" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="6.109375" customWidth="1"/>
+    <col min="12" max="12" width="8.21875" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" customWidth="1"/>
+    <col min="14" max="14" width="11.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="20"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="15"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>1</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="5">
+        <v>32</v>
+      </c>
+      <c r="L8" s="5"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>2</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="11">
+        <v>32</v>
+      </c>
+      <c r="L9" s="5"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>3</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>4</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="5">
+        <v>50</v>
+      </c>
+      <c r="L11" s="5"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>5</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>6</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="5">
+        <v>50</v>
+      </c>
+      <c r="L13" s="5"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>7</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>8</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="5">
+        <v>200</v>
+      </c>
+      <c r="L15" s="5"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="15"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="25"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="26">
+        <v>1</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="C20" s="28"/>
+      <c r="D20" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="I20" s="14"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="L20" s="30"/>
+      <c r="M20" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="22"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="31"/>
+      <c r="B21" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="28"/>
+      <c r="D21" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="I21" s="14"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="L21" s="30"/>
+      <c r="M21" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="22"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="31"/>
+      <c r="B22" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="C22" s="28"/>
+      <c r="D22" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="I22" s="14"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="22"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="31"/>
+      <c r="B23" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="28"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L23" s="30"/>
+      <c r="M23" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="22"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="31"/>
+      <c r="B24" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="37"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="31"/>
+      <c r="B25" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="D25" s="39"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="G25" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="H25" s="30"/>
+      <c r="I25" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="J25" s="30"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="41"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="31"/>
+      <c r="B26" s="43">
+        <v>1</v>
+      </c>
+      <c r="C26" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="D26" s="45"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="H26" s="46"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="51"/>
+      <c r="O26" s="51"/>
+      <c r="P26" s="50"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="31"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="51"/>
+      <c r="O27" s="51"/>
+      <c r="P27" s="50"/>
+    </row>
+  </sheetData>
+  <mergeCells count="50">
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="B24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A17:P17"/>
+    <mergeCell ref="A19:P19"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="B21:C21"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="I3:M3"/>
@@ -4131,161 +6645,159 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA08EB2-8B14-4D90-BD9C-62084C48CD81}">
-  <dimension ref="A1:P28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E8E42C9-C05B-4E62-A510-6D91D5B4B214}">
+  <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:P25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="4.4140625" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" customWidth="1"/>
     <col min="3" max="3" width="5.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.9140625" customWidth="1"/>
-    <col min="5" max="5" width="4.75" customWidth="1"/>
-    <col min="6" max="6" width="15.08203125" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="4.77734375" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="9" max="9" width="4.75" customWidth="1"/>
+    <col min="9" max="9" width="4.77734375" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="6.08203125" customWidth="1"/>
-    <col min="12" max="12" width="8.25" customWidth="1"/>
+    <col min="11" max="11" width="6.109375" customWidth="1"/>
+    <col min="12" max="12" width="8.21875" customWidth="1"/>
     <col min="13" max="13" width="12.6640625" customWidth="1"/>
-    <col min="14" max="14" width="11.08203125" customWidth="1"/>
+    <col min="14" max="14" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="19"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="11"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="10"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="19"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="11"/>
+      <c r="I2" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="10"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="19"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="11"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="10"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="10"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="9"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="23"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="15"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -4299,7 +6811,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
@@ -4326,7 +6838,7 @@
         <v>27</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>10</v>
@@ -4335,7 +6847,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>1</v>
       </c>
@@ -4343,16 +6855,16 @@
         <v>18</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>155</v>
+        <v>102</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>14</v>
@@ -4365,7 +6877,832 @@
         <v>20</v>
       </c>
       <c r="K8" s="5">
+        <v>200</v>
+      </c>
+      <c r="L8" s="5"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>2</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="11">
+        <v>200</v>
+      </c>
+      <c r="L9" s="5"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>3</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="K10" s="11"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>4</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="11">
+        <v>1000</v>
+      </c>
+      <c r="L11" s="5"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>5</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="11">
         <v>100</v>
+      </c>
+      <c r="L12" s="5"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>6</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="11">
+        <v>32</v>
+      </c>
+      <c r="L13" s="5"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>7</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" t="s">
+        <v>162</v>
+      </c>
+      <c r="L14" s="5"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>8</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" t="s">
+        <v>162</v>
+      </c>
+      <c r="L15" s="5"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>9</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="I16" s="5"/>
+      <c r="J16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" t="s">
+        <v>162</v>
+      </c>
+      <c r="L16" s="5"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>10</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17">
+        <v>4000</v>
+      </c>
+      <c r="L17" s="5"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>11</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="N18" s="6"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>12</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>13</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="5">
+        <v>50</v>
+      </c>
+      <c r="L20" s="5"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>14</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>15</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" s="5">
+        <v>50</v>
+      </c>
+      <c r="L22" s="5"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="1"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>16</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>17</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I24" s="5"/>
+      <c r="J24" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" s="5">
+        <v>200</v>
+      </c>
+      <c r="L24" s="5"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="1"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="1"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="13"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A26:P26"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AD41108-A605-49A2-AB5B-1C5300AA8DE1}">
+  <dimension ref="A1:P38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S41" sqref="S41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="4.77734375" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="9" max="9" width="4.77734375" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="6.109375" customWidth="1"/>
+    <col min="12" max="12" width="8.21875" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" customWidth="1"/>
+    <col min="14" max="14" width="11.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="20"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="15"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>1</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="5">
+        <v>32</v>
       </c>
       <c r="L8" s="5"/>
       <c r="M8" s="6"/>
@@ -4373,23 +7710,21 @@
       <c r="O8" s="5"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>2</v>
       </c>
       <c r="B9" s="5"/>
-      <c r="C9" s="5" t="s">
-        <v>88</v>
-      </c>
+      <c r="C9" s="5"/>
       <c r="D9" s="6" t="s">
-        <v>156</v>
+        <v>101</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="6" t="s">
-        <v>157</v>
+        <v>102</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="5" t="s">
@@ -4398,8 +7733,8 @@
       <c r="J9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="12">
-        <v>200</v>
+      <c r="K9" s="11">
+        <v>32</v>
       </c>
       <c r="L9" s="5"/>
       <c r="M9" s="6"/>
@@ -4407,21 +7742,21 @@
       <c r="O9" s="5"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>3</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="6" t="s">
-        <v>162</v>
+        <v>244</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="6" t="s">
-        <v>163</v>
+        <v>245</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>164</v>
+        <v>246</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="5" t="s">
@@ -4430,8 +7765,8 @@
       <c r="J10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="12">
-        <v>10</v>
+      <c r="K10" s="11">
+        <v>32</v>
       </c>
       <c r="L10" s="5"/>
       <c r="M10" s="6"/>
@@ -4439,21 +7774,21 @@
       <c r="O10" s="5"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>4</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="6" t="s">
-        <v>159</v>
+        <v>247</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="6" t="s">
-        <v>160</v>
+        <v>248</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>161</v>
+        <v>249</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="5" t="s">
@@ -4462,8 +7797,8 @@
       <c r="J11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="12">
-        <v>100</v>
+      <c r="K11" s="11">
+        <v>500</v>
       </c>
       <c r="L11" s="5"/>
       <c r="M11" s="6"/>
@@ -4471,31 +7806,29 @@
       <c r="O11" s="5"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>5</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="6" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="6" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>165</v>
+        <v>257</v>
       </c>
       <c r="H12" s="6"/>
-      <c r="I12" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="I12" s="5"/>
       <c r="J12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K12">
-        <v>4000</v>
+      <c r="K12" s="11">
+        <v>500</v>
       </c>
       <c r="L12" s="5"/>
       <c r="M12" s="6"/>
@@ -4503,56 +7836,67 @@
       <c r="O12" s="5"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>6</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="E13" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>85</v>
+      </c>
       <c r="F13" s="6" t="s">
-        <v>104</v>
+        <v>29</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="J13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K13">
-        <v>200</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
       <c r="O13" s="5"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>7</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="6" t="s">
-        <v>171</v>
+        <v>31</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="6" t="s">
-        <v>172</v>
+        <v>32</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="J14" s="6" t="s">
-        <v>174</v>
+        <v>20</v>
+      </c>
+      <c r="K14" s="5">
+        <v>50</v>
       </c>
       <c r="L14" s="5"/>
       <c r="M14" s="6"/>
@@ -4560,58 +7904,1167 @@
       <c r="O14" s="5"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>8</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="6" t="s">
-        <v>140</v>
+        <v>35</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="6" t="s">
-        <v>141</v>
+        <v>36</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="5"/>
+        <v>37</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="J15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K15">
-        <v>200</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="5"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>9</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="6" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="6" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="H16" s="6"/>
+        <v>41</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>76</v>
+      </c>
       <c r="I16" s="5" t="s">
         <v>19</v>
       </c>
       <c r="J16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="5">
+        <v>50</v>
+      </c>
+      <c r="L16" s="5"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>10</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>11</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I18" s="5"/>
+      <c r="J18" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="5">
+        <v>200</v>
+      </c>
+      <c r="L18" s="5"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="15"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="25"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="26">
+        <v>1</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="C23" s="28"/>
+      <c r="D23" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="H23" s="13"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="L23" s="30"/>
+      <c r="M23" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="22"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="31"/>
+      <c r="B24" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="28"/>
+      <c r="D24" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="I24" s="14"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="L24" s="30"/>
+      <c r="M24" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="22"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="31"/>
+      <c r="B25" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="C25" s="28"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="22"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="31"/>
+      <c r="B26" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="28"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L26" s="30"/>
+      <c r="M26" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="22"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="31"/>
+      <c r="B27" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="37"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="31"/>
+      <c r="B28" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="D28" s="39"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="G28" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="H28" s="30"/>
+      <c r="I28" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="J28" s="30"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="42"/>
+      <c r="O28" s="42"/>
+      <c r="P28" s="41"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="31"/>
+      <c r="B29" s="43">
+        <v>1</v>
+      </c>
+      <c r="C29" s="44" t="s">
+        <v>213</v>
+      </c>
+      <c r="D29" s="45"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="44" t="s">
+        <v>214</v>
+      </c>
+      <c r="H29" s="46"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="48"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="50"/>
+      <c r="M29" s="49"/>
+      <c r="N29" s="51"/>
+      <c r="O29" s="51"/>
+      <c r="P29" s="50"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="31"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="50"/>
+      <c r="M30" s="49"/>
+      <c r="N30" s="51"/>
+      <c r="O30" s="51"/>
+      <c r="P30" s="50"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="26">
+        <v>2</v>
+      </c>
+      <c r="B31" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="C31" s="28"/>
+      <c r="D31" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="H31" s="13"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="L31" s="30"/>
+      <c r="M31" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="22"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="31"/>
+      <c r="B32" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="28"/>
+      <c r="D32" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="I32" s="14"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="L32" s="30"/>
+      <c r="M32" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="N32" s="21"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="22"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="31"/>
+      <c r="B33" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="C33" s="28"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="34"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="22"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="31"/>
+      <c r="B34" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="28"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L34" s="30"/>
+      <c r="M34" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="22"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="31"/>
+      <c r="B35" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="37"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="37"/>
+      <c r="M35" s="35"/>
+      <c r="N35" s="36"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="37"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="31"/>
+      <c r="B36" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="D36" s="39"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="G36" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="H36" s="30"/>
+      <c r="I36" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="J36" s="30"/>
+      <c r="K36" s="40"/>
+      <c r="L36" s="41"/>
+      <c r="M36" s="40"/>
+      <c r="N36" s="42"/>
+      <c r="O36" s="42"/>
+      <c r="P36" s="41"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="31"/>
+      <c r="B37" s="43">
+        <v>1</v>
+      </c>
+      <c r="C37" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="D37" s="45"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="44" t="s">
+        <v>214</v>
+      </c>
+      <c r="H37" s="46"/>
+      <c r="I37" s="47"/>
+      <c r="J37" s="48"/>
+      <c r="K37" s="49"/>
+      <c r="L37" s="50"/>
+      <c r="M37" s="49"/>
+      <c r="N37" s="51"/>
+      <c r="O37" s="51"/>
+      <c r="P37" s="50"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="31"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="46"/>
+      <c r="I38" s="47"/>
+      <c r="J38" s="48"/>
+      <c r="K38" s="49"/>
+      <c r="L38" s="50"/>
+      <c r="M38" s="49"/>
+      <c r="N38" s="51"/>
+      <c r="O38" s="51"/>
+      <c r="P38" s="50"/>
+    </row>
+  </sheetData>
+  <mergeCells count="85">
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:P37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:P38"/>
+    <mergeCell ref="B35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="A31:A38"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="B27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A20:P20"/>
+    <mergeCell ref="A22:P22"/>
+    <mergeCell ref="A23:A30"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D7D286C-CD81-4009-9C9D-3ACAF005C054}">
+  <dimension ref="A1:P21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" customWidth="1"/>
+    <col min="5" max="5" width="4.77734375" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
+    <col min="7" max="7" width="18.21875" customWidth="1"/>
+    <col min="9" max="9" width="4.77734375" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="6.109375" customWidth="1"/>
+    <col min="12" max="12" width="8.21875" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" customWidth="1"/>
+    <col min="14" max="14" width="11.109375" customWidth="1"/>
+    <col min="15" max="15" width="14.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="20"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="15"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>1</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="K8" s="5">
+        <v>32</v>
+      </c>
+      <c r="L8" s="5"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>2</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="K9" s="5">
+        <v>100</v>
+      </c>
+      <c r="L9" s="5"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>3</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="K10" s="5">
+        <v>20</v>
+      </c>
+      <c r="L10" s="5"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>4</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="K11" s="5">
+        <v>4000</v>
+      </c>
+      <c r="L11" s="5"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>5</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="6" t="s">
         <v>21</v>
+      </c>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>6</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="K13" s="5">
+        <v>500</v>
+      </c>
+      <c r="L13" s="5"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>7</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>8</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="5">
+        <v>50</v>
+      </c>
+      <c r="L15" s="5"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>9</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
@@ -4620,29 +9073,33 @@
       <c r="O16" s="5"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>10</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="6" t="s">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="6" t="s">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="H17" s="6"/>
-      <c r="I17" s="5"/>
+        <v>41</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="J17" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K17" s="12">
-        <v>1000</v>
+      <c r="K17" s="5">
+        <v>50</v>
       </c>
       <c r="L17" s="5"/>
       <c r="M17" s="6"/>
@@ -4650,32 +9107,30 @@
       <c r="O17" s="5"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>11</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>86</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="E18" s="5"/>
       <c r="F18" s="6" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>19</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
@@ -4684,33 +9139,33 @@
       <c r="O18" s="5"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>12</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="5"/>
+        <v>45</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>86</v>
+      </c>
       <c r="F19" s="6" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>19</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="I19" s="5"/>
       <c r="J19" s="6" t="s">
         <v>20</v>
       </c>
       <c r="K19" s="5">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="L19" s="5"/>
       <c r="M19" s="6"/>
@@ -4718,31 +9173,17 @@
       <c r="O19" s="5"/>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="5">
-        <v>13</v>
-      </c>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
-      <c r="D20" s="6" t="s">
-        <v>35</v>
-      </c>
+      <c r="D20" s="6"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>38</v>
-      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="6"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="6"/>
@@ -4750,181 +9191,40 @@
       <c r="O20" s="5"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="5">
-        <v>14</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K21" s="5">
-        <v>50</v>
-      </c>
-      <c r="L21" s="5"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="1"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="5">
-        <v>15</v>
-      </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="1"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="5">
-        <v>16</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="I23" s="5"/>
-      <c r="J23" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K23" s="5">
-        <v>200</v>
-      </c>
-      <c r="L23" s="5"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="1"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="1"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="21"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="23"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B27" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="9"/>
-    </row>
-    <row r="28" spans="1:16" ht="124.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="14">
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A21:P21"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="A5:P5"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="I1:M1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A25:P25"/>
-    <mergeCell ref="B28:M28"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:M4"/>
-    <mergeCell ref="A5:P5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
